--- a/xlsx/专有服务器_intext.xlsx
+++ b/xlsx/专有服务器_intext.xlsx
@@ -29,7 +29,7 @@
     <t>互联网托管服务</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_专有服务器</t>
+    <t>政策_政策_维基百科_专有服务器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E4%B8%BB%E6%9C%BA</t>
@@ -41,25 +41,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%A9%9F%E8%A8%97%E7%AE%A1</t>
   </si>
   <si>
-    <t>主機託管</t>
+    <t>主机讬管</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B2%E7%AB%AF%E9%81%8B%E7%AE%97</t>
   </si>
   <si>
-    <t>雲端運算</t>
+    <t>云端运算</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%A0%81%E5%AF%84%E5%AD%98%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>網頁寄存服務</t>
+    <t>网页寄存服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%B2%BB%E7%B6%B2%E9%A0%81%E5%AF%84%E5%AD%98%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>免費網頁寄存服務</t>
+    <t>免费网页寄存服务</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Shared_web_hosting_service</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A2%E9%9B%86%E5%AF%84%E5%AD%98</t>
   </si>
   <si>
-    <t>叢集寄存</t>
+    <t>丛集寄存</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Reseller_web_hosting</t>
@@ -107,19 +107,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%B1%E7%89%87%E5%88%86%E4%BA%AB%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>影片分享網站</t>
+    <t>影片分享网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wiki%E8%BE%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>Wiki農場</t>
+    <t>Wiki农场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E6%9C%8D%E5%8B%99%E6%8F%90%E4%BE%9B%E5%95%86</t>
   </si>
   <si>
-    <t>應用服務提供商</t>
+    <t>应用服务提供商</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_network_hosting_service</t>
@@ -161,19 +161,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A5%AD%E9%81%94</t>
   </si>
   <si>
-    <t>英業達</t>
+    <t>英业达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B4%BB%E6%B5%B7</t>
   </si>
   <si>
-    <t>鴻海</t>
+    <t>鸿海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%A2%A9</t>
   </si>
   <si>
-    <t>華碩</t>
+    <t>华硕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%AC%E5%88%9B</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E9%81%94</t>
   </si>
   <si>
-    <t>廣達</t>
+    <t>广达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IRC</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%95%A3%E5%BC%8F%E9%98%BB%E6%96%B7%E6%9C%8D%E5%8B%99%E6%94%BB%E6%93%8A</t>
   </si>
   <si>
-    <t>分散式阻斷服務攻擊</t>
+    <t>分散式阻断服务攻击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -612,7 +612,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
